--- a/Diseño/Chile/Aplicaciones­_Data_Agro.xlsx
+++ b/Diseño/Chile/Aplicaciones­_Data_Agro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Diseño\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B975A708-1DD4-4445-A63C-66D26B6199F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A4864-E268-4B8C-BF92-9DDD04C81FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9DF657B-7FA0-4371-A454-0808398948B9}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="20" windowWidth="8920" windowHeight="9710" xr2:uid="{C9DF657B-7FA0-4371-A454-0808398948B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="212">
   <si>
     <t>NDVI</t>
   </si>
@@ -998,11 +998,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC792F38-4679-4FDC-B68A-907F53771BBF}" name="Tabla1" displayName="Tabla1" ref="A3:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC792F38-4679-4FDC-B68A-907F53771BBF}" name="Tabla1" displayName="Tabla1" ref="A3:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A3:M39" xr:uid="{E0447808-DBFD-4AFC-9175-44F62D038181}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Indices de CC"/>
+        <filter val="Agronómico"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1010,19 +1010,19 @@
     <sortCondition ref="A4:A37"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{9DB26C16-7428-4674-9F5A-8D8F252E666B}" name="Categoría indice" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{F66EDE29-2612-4813-A28F-CF9F2B8774D4}" name="Interés" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E7984AEF-EB6B-4452-B035-DE02C7EDBC6E}" name="Detalle" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{606AFE8F-0BFB-4639-A729-C8F8BE700291}" name="Acrónimo" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{F5DA04A0-7FE8-4AB7-A743-1AF5A90B9F3A}" name="Nombre" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D935FA54-B732-41CF-9279-65BCB18E4D5E}" name="Descripción" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{391C1390-8D22-4B9F-B455-B41207A560EB}" name="Objetivo" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C5F73D62-541B-4312-A499-765940C8492C}" name="Interpretación" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{633ACEB1-86C2-40AC-85A3-1FF24E6A870D}" name="Propuesto por" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{D7CB390A-702F-49DE-9BBF-76ABBA2AC155}" name="Asociado a" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{03CC87A8-4A95-41B8-951D-C386B685BEAE}" name="Incluido actualmente" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2B87E827-7E08-4E36-83B9-4B3EAD5BCF05}" name="Cuando usar" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{BF006190-98EB-432D-8B1A-A6F061F95491}" name="Ecuación" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9DB26C16-7428-4674-9F5A-8D8F252E666B}" name="Categoría indice" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{F66EDE29-2612-4813-A28F-CF9F2B8774D4}" name="Interés" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E7984AEF-EB6B-4452-B035-DE02C7EDBC6E}" name="Detalle" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{606AFE8F-0BFB-4639-A729-C8F8BE700291}" name="Acrónimo" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{F5DA04A0-7FE8-4AB7-A743-1AF5A90B9F3A}" name="Nombre" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D935FA54-B732-41CF-9279-65BCB18E4D5E}" name="Descripción" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{391C1390-8D22-4B9F-B455-B41207A560EB}" name="Objetivo" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{C5F73D62-541B-4312-A499-765940C8492C}" name="Interpretación" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{633ACEB1-86C2-40AC-85A3-1FF24E6A870D}" name="Propuesto por" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D7CB390A-702F-49DE-9BBF-76ABBA2AC155}" name="Asociado a" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{03CC87A8-4A95-41B8-951D-C386B685BEAE}" name="Incluido actualmente" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{2B87E827-7E08-4E36-83B9-4B3EAD5BCF05}" name="Cuando usar" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{BF006190-98EB-432D-8B1A-A6F061F95491}" name="Ecuación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1328,7 +1328,7 @@
   <dimension ref="A3:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G39"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,7 +1423,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>186</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>186</v>
       </c>
@@ -1481,7 +1481,9 @@
       <c r="F6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
@@ -1495,7 +1497,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>186</v>
       </c>
@@ -1532,7 +1534,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="139.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>186</v>
       </c>
@@ -1569,7 +1571,7 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>186</v>
       </c>
@@ -1604,7 +1606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>186</v>
       </c>
@@ -1709,7 +1711,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>186</v>
       </c>
@@ -1781,7 +1783,7 @@
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="84.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>186</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>186</v>
       </c>
@@ -1987,7 +1989,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -2018,7 +2020,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="57.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2055,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
@@ -2119,7 +2121,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2245,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="139.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +2278,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
@@ -2307,7 +2309,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="108.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>22</v>
       </c>

--- a/Diseño/Chile/Aplicaciones­_Data_Agro.xlsx
+++ b/Diseño/Chile/Aplicaciones­_Data_Agro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Diseño\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A4864-E268-4B8C-BF92-9DDD04C81FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186A4E3E-5D26-4834-8689-B88F8E9F91DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="20" windowWidth="8920" windowHeight="9710" xr2:uid="{C9DF657B-7FA0-4371-A454-0808398948B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9DF657B-7FA0-4371-A454-0808398948B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,6 @@
     <t>Temperature–Vegetation Dryness Index (Indice de Sequía de Vegetación y Temperatura)</t>
   </si>
   <si>
-    <t>Monitoreo de estress hídrico en vegetación.</t>
-  </si>
-  <si>
     <t>TVDMI</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>Muy sensible al contenido de clorofila en vegetación decidua. Es mejor que el NDVI para cultivo en temporada temprana y media.</t>
   </si>
   <si>
-    <t>Monitoreo de estado de salud del cultivo y cambio en Nitrógeno (Inicio temporada)</t>
-  </si>
-  <si>
     <t>Valores menores a 0,5 (amarillo pálido a verde pálido) con plantas poco saludables o vegetación que está al principio de su maduración. Valores mayores a 0,5 indican vegetación vigorosa y saludable</t>
   </si>
   <si>
@@ -652,9 +646,6 @@
     <t>indicador numérico que muestra la cobertura de nieve en áreas terrestres. Las bandas espectrales de infrarrojos verdes y de onda corta (SWIR) se utilizan dentro de esta fórmula para trazar el mapa de la cubierta de nieve. Dado que la nieve absorbe la mayor parte de la radiación incidente en el SWIR mientras que las nubes no lo hacen, esto permite a NDSI distinguir la nieve de las nubes. </t>
   </si>
   <si>
-    <t>Monitoreo de cobertura de nieve, hielo y glaciares</t>
-  </si>
-  <si>
     <t>Fórmula del NDSI = (Green-SWIR) / (Green+SWIR)</t>
   </si>
   <si>
@@ -674,6 +665,16 @@
   </si>
   <si>
     <t>Vegetación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoreo de estado de salud del cultivo y cambio en Nitrógeno </t>
+  </si>
+  <si>
+    <t>Monitorear de cobertura de nieve, hielo y glaciares.
+Puede ser usado para predicciones hidrológicas</t>
+  </si>
+  <si>
+    <t>Monitoreo de humedad del suelo y estres hídrico en vegetación.</t>
   </si>
 </sst>
 </file>
@@ -717,12 +718,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -738,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -752,6 +759,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1000,9 +1011,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC792F38-4679-4FDC-B68A-907F53771BBF}" name="Tabla1" displayName="Tabla1" ref="A3:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A3:M39" xr:uid="{E0447808-DBFD-4AFC-9175-44F62D038181}">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Agronómico"/>
+        <filter val="BSI"/>
+        <filter val="NDTI"/>
+        <filter val="SINDRI"/>
+        <filter val="TDVI"/>
+        <filter val="TVDMI"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1327,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F8FFA-28BD-4FE8-8F32-6ED124BA8954}">
   <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1352,7 +1367,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
@@ -1370,621 +1385,621 @@
         <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="47.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="139.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="62" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>152</v>
+      <c r="G13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="62" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="84.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -1994,47 +2009,47 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="57.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>27</v>
@@ -2044,13 +2059,13 @@
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -2060,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>16</v>
@@ -2075,25 +2090,25 @@
         <v>38</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>15</v>
@@ -2105,18 +2120,18 @@
         <v>39</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -2126,30 +2141,30 @@
         <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -2159,10 +2174,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>14</v>
@@ -2171,18 +2186,18 @@
         <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2192,28 +2207,28 @@
         <v>13</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -2223,57 +2238,57 @@
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="139.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -2283,28 +2298,28 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2314,32 +2329,32 @@
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
@@ -2347,28 +2362,28 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2378,32 +2393,32 @@
         <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
@@ -2411,28 +2426,28 @@
         <v>19</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
@@ -2440,28 +2455,28 @@
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2471,59 +2486,59 @@
         <v>24</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -2533,32 +2548,32 @@
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="108.5" hidden="1" x14ac:dyDescent="0.35">
@@ -2566,32 +2581,32 @@
         <v>22</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2620,10 +2635,10 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Diseño/Chile/Aplicaciones­_Data_Agro.xlsx
+++ b/Diseño/Chile/Aplicaciones­_Data_Agro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Diseño\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186A4E3E-5D26-4834-8689-B88F8E9F91DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9694E-E76E-45AA-A841-5EC3B73A5A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9DF657B-7FA0-4371-A454-0808398948B9}"/>
+    <workbookView minimized="1" xWindow="30" yWindow="0" windowWidth="11320" windowHeight="9710" xr2:uid="{C9DF657B-7FA0-4371-A454-0808398948B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1010,17 +1010,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC792F38-4679-4FDC-B68A-907F53771BBF}" name="Tabla1" displayName="Tabla1" ref="A3:M39" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A3:M39" xr:uid="{E0447808-DBFD-4AFC-9175-44F62D038181}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="BSI"/>
-        <filter val="NDTI"/>
-        <filter val="SINDRI"/>
-        <filter val="TDVI"/>
-        <filter val="TVDMI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:M39" xr:uid="{E0447808-DBFD-4AFC-9175-44F62D038181}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M37">
     <sortCondition ref="A4:A37"/>
   </sortState>
@@ -1342,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F8FFA-28BD-4FE8-8F32-6ED124BA8954}">
   <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1403,7 +1393,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="47.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
@@ -1438,7 +1428,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>184</v>
       </c>
@@ -1477,7 +1467,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="91" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
@@ -1512,7 +1502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>184</v>
       </c>
@@ -1549,7 +1539,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="139.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>184</v>
       </c>
@@ -1586,7 +1576,7 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>184</v>
       </c>
@@ -1621,7 +1611,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>184</v>
       </c>
@@ -1658,7 +1648,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>184</v>
       </c>
@@ -1693,7 +1683,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>184</v>
       </c>
@@ -1726,7 +1716,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>184</v>
       </c>
@@ -1763,7 +1753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>184</v>
       </c>
@@ -1798,7 +1788,7 @@
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="84.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>184</v>
       </c>
@@ -1831,7 +1821,7 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>184</v>
       </c>
@@ -1866,7 +1856,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>184</v>
       </c>
@@ -1907,7 +1897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>184</v>
       </c>
@@ -1938,7 +1928,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>184</v>
       </c>
@@ -1971,7 +1961,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>184</v>
       </c>
@@ -2004,7 +1994,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -2035,7 +2025,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="57.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2159,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -2202,7 +2192,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
@@ -2233,7 +2223,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2250,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="139.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2388,7 +2378,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2421,7 +2411,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -2450,7 +2440,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="62" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
@@ -2481,7 +2471,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="46.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -2512,7 +2502,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>184</v>
       </c>
@@ -2543,7 +2533,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="77.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
@@ -2576,7 +2566,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="108.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>22</v>
       </c>
